--- a/biology/Zoologie/Basiloterus/Basiloterus.xlsx
+++ b/biology/Zoologie/Basiloterus/Basiloterus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Basiloterus hussaini
 Basiloterus est un genre fossile de cétacés de la famille également fossile des Basilosauridae. Il n’est représenté que par une seule espèce qui a vécu lors du Bartonien, Basiloterus hussaini.
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Basiloterus est décrit pour la première fois en 1997, sur la base de deux vertèbres trouvées dans la formation de Drazinda, dans le Pakistan actuel, datant de la fin de l’Éocène moyen[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basiloterus est décrit pour la première fois en 1997, sur la base de deux vertèbres trouvées dans la formation de Drazinda, dans le Pakistan actuel, datant de la fin de l’Éocène moyen.
 </t>
         </is>
       </c>
